--- a/WorkLogVincent.xlsx
+++ b/WorkLogVincent.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E086793-3E4E-473E-A488-AD2C44DA604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37869083-526A-4E9E-BE9B-A79BC2905C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Vinc</t>
   </si>
@@ -33,9 +44,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -43,6 +51,30 @@
   </si>
   <si>
     <t>fixing ref / dependency issues of poppinger</t>
+  </si>
+  <si>
+    <t>making assests</t>
+  </si>
+  <si>
+    <t>bugfixing / cleanup</t>
+  </si>
+  <si>
+    <t>adjusting code for texture spawning</t>
+  </si>
+  <si>
+    <t>making fruit functions</t>
+  </si>
+  <si>
+    <t>trying to fix normalmaps  faild</t>
+  </si>
+  <si>
+    <t>Fruit class + collect</t>
+  </si>
+  <si>
+    <t>bugfixing collect and fruitincrease</t>
+  </si>
+  <si>
+    <t>trying fix color</t>
   </si>
 </sst>
 </file>
@@ -362,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
@@ -389,23 +421,111 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
       </c>
       <c r="D3" s="1">
         <v>45678</v>
       </c>
       <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45680</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkLogVincent.xlsx
+++ b/WorkLogVincent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37869083-526A-4E9E-BE9B-A79BC2905C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A9B62-D40C-44E5-8B98-2711EF26BA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="345" windowWidth="21660" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Vinc</t>
   </si>
@@ -56,12 +56,6 @@
     <t>making assests</t>
   </si>
   <si>
-    <t>bugfixing / cleanup</t>
-  </si>
-  <si>
-    <t>adjusting code for texture spawning</t>
-  </si>
-  <si>
     <t>making fruit functions</t>
   </si>
   <si>
@@ -75,6 +69,15 @@
   </si>
   <si>
     <t>trying fix color</t>
+  </si>
+  <si>
+    <t>adjusting code for fruit texture spawning</t>
+  </si>
+  <si>
+    <t>bugfixing -&gt; / cleanup</t>
+  </si>
+  <si>
+    <t>degerno videos</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +444,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -452,7 +455,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -463,40 +466,40 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>45679</v>
       </c>
     </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45679</v>
+      </c>
+    </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45680</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -507,10 +510,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>45680</v>
@@ -521,10 +524,27 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>45680</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SUM(C3:C14)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
